--- a/results/mp/tinybert/toy-spam/confidence/168/stop-words-topk-masking-0.2/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/168/stop-words-topk-masking-0.2/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="79">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,36 +46,42 @@
     <t>disappointing</t>
   </si>
   <si>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>disappointed</t>
+  </si>
+  <si>
+    <t>junk</t>
+  </si>
+  <si>
     <t>however</t>
   </si>
   <si>
-    <t>poor</t>
-  </si>
-  <si>
     <t>waste</t>
   </si>
   <si>
-    <t>disappointed</t>
+    <t>tiny</t>
   </si>
   <si>
     <t>broke</t>
   </si>
   <si>
-    <t>returned</t>
-  </si>
-  <si>
-    <t>junk</t>
+    <t>instead</t>
+  </si>
+  <si>
+    <t>water</t>
   </si>
   <si>
     <t>smaller</t>
   </si>
   <si>
+    <t>guess</t>
+  </si>
+  <si>
     <t>small</t>
   </si>
   <si>
-    <t>instead</t>
-  </si>
-  <si>
     <t>broken</t>
   </si>
   <si>
@@ -85,67 +91,61 @@
     <t>plastic</t>
   </si>
   <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>cheap</t>
+  </si>
+  <si>
+    <t>pay</t>
+  </si>
+  <si>
+    <t>apart</t>
+  </si>
+  <si>
+    <t>paint</t>
+  </si>
+  <si>
     <t>difficult</t>
   </si>
   <si>
-    <t>cheap</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>paint</t>
-  </si>
-  <si>
-    <t>pay</t>
-  </si>
-  <si>
-    <t>apart</t>
-  </si>
-  <si>
     <t>thought</t>
   </si>
   <si>
+    <t>though</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
     <t>bit</t>
   </si>
   <si>
-    <t>size</t>
-  </si>
-  <si>
-    <t>though</t>
+    <t>money</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>would</t>
+  </si>
+  <si>
+    <t>price</t>
   </si>
   <si>
     <t>hard</t>
   </si>
   <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>back</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
-    <t>price</t>
+    <t>product</t>
   </si>
   <si>
     <t>work</t>
   </si>
   <si>
-    <t>would</t>
-  </si>
-  <si>
-    <t>product</t>
-  </si>
-  <si>
-    <t>box</t>
-  </si>
-  <si>
-    <t>could</t>
+    <t>used</t>
   </si>
   <si>
     <t>3</t>
@@ -154,21 +154,18 @@
     <t>2</t>
   </si>
   <si>
+    <t>buy</t>
+  </si>
+  <si>
     <t>little</t>
   </si>
   <si>
+    <t>like</t>
+  </si>
+  <si>
     <t>use</t>
   </si>
   <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
     <t>toy</t>
   </si>
   <si>
@@ -181,15 +178,15 @@
     <t>wonderful</t>
   </si>
   <si>
+    <t>awesome</t>
+  </si>
+  <si>
+    <t>favorite</t>
+  </si>
+  <si>
     <t>amazing</t>
   </si>
   <si>
-    <t>awesome</t>
-  </si>
-  <si>
-    <t>favorite</t>
-  </si>
-  <si>
     <t>excellent</t>
   </si>
   <si>
@@ -199,12 +196,12 @@
     <t>love</t>
   </si>
   <si>
+    <t>loves</t>
+  </si>
+  <si>
     <t>thank</t>
   </si>
   <si>
-    <t>loves</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
@@ -220,24 +217,24 @@
     <t>friends</t>
   </si>
   <si>
+    <t>enjoyed</t>
+  </si>
+  <si>
     <t>learn</t>
   </si>
   <si>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>enjoy</t>
+  </si>
+  <si>
+    <t>fun</t>
+  </si>
+  <si>
     <t>happy</t>
   </si>
   <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>enjoy</t>
-  </si>
-  <si>
-    <t>every</t>
-  </si>
-  <si>
-    <t>fun</t>
-  </si>
-  <si>
     <t>family</t>
   </si>
   <si>
@@ -247,13 +244,7 @@
     <t>easy</t>
   </si>
   <si>
-    <t>playing</t>
-  </si>
-  <si>
     <t>play</t>
-  </si>
-  <si>
-    <t>kids</t>
   </si>
   <si>
     <t>good</t>
@@ -617,7 +608,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q47"/>
+  <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -625,10 +616,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -686,13 +677,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9782608695652174</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="C3">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D3">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -704,10 +695,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K3">
         <v>0.8928571428571429</v>
@@ -736,13 +727,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8181818181818182</v>
+        <v>0.8863636363636364</v>
       </c>
       <c r="C4">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D4">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -754,19 +745,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K4">
-        <v>0.8888888888888888</v>
+        <v>0.8923076923076924</v>
       </c>
       <c r="L4">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="M4">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -778,7 +769,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -786,13 +777,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.75</v>
+        <v>0.7323943661971831</v>
       </c>
       <c r="C5">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D5">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -804,19 +795,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K5">
-        <v>0.8769230769230769</v>
+        <v>0.8172043010752689</v>
       </c>
       <c r="L5">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="M5">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -828,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -836,13 +827,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7183098591549296</v>
+        <v>0.7311827956989247</v>
       </c>
       <c r="C6">
-        <v>51</v>
+        <v>136</v>
       </c>
       <c r="D6">
-        <v>51</v>
+        <v>136</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -854,19 +845,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K6">
-        <v>0.8387096774193549</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="L6">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="M6">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -878,7 +869,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -886,13 +877,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.6824324324324325</v>
+        <v>0.6727272727272727</v>
       </c>
       <c r="C7">
-        <v>101</v>
+        <v>37</v>
       </c>
       <c r="D7">
-        <v>101</v>
+        <v>37</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -904,19 +895,19 @@
         <v>0</v>
       </c>
       <c r="H7">
+        <v>18</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K7">
+        <v>0.734375</v>
+      </c>
+      <c r="L7">
         <v>47</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="K7">
-        <v>0.796875</v>
-      </c>
-      <c r="L7">
-        <v>51</v>
-      </c>
       <c r="M7">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -928,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -936,13 +927,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.6720430107526881</v>
+        <v>0.671875</v>
       </c>
       <c r="C8">
-        <v>125</v>
+        <v>43</v>
       </c>
       <c r="D8">
-        <v>125</v>
+        <v>43</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -954,19 +945,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K8">
-        <v>0.660377358490566</v>
+        <v>0.6792452830188679</v>
       </c>
       <c r="L8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -978,7 +969,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -986,13 +977,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6650485436893204</v>
+        <v>0.6554054054054054</v>
       </c>
       <c r="C9">
-        <v>137</v>
+        <v>97</v>
       </c>
       <c r="D9">
-        <v>137</v>
+        <v>97</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1004,19 +995,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K9">
-        <v>0.5839311334289814</v>
+        <v>0.5767575322812052</v>
       </c>
       <c r="L9">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="M9">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1028,7 +1019,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>290</v>
+        <v>295</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1036,13 +1027,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.631578947368421</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="C10">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D10">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1054,19 +1045,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K10">
-        <v>0.5362318840579711</v>
+        <v>0.529045643153527</v>
       </c>
       <c r="L10">
-        <v>37</v>
+        <v>255</v>
       </c>
       <c r="M10">
-        <v>37</v>
+        <v>255</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1078,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>32</v>
+        <v>227</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1086,13 +1077,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6181818181818182</v>
+        <v>0.616504854368932</v>
       </c>
       <c r="C11">
-        <v>34</v>
+        <v>127</v>
       </c>
       <c r="D11">
-        <v>34</v>
+        <v>127</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1104,19 +1095,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K11">
-        <v>0.5269709543568465</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="L11">
-        <v>254</v>
+        <v>36</v>
       </c>
       <c r="M11">
-        <v>254</v>
+        <v>36</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1128,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>228</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1136,13 +1127,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5630252100840336</v>
+        <v>0.6041666666666666</v>
       </c>
       <c r="C12">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="D12">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1154,19 +1145,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K12">
-        <v>0.4811475409836066</v>
+        <v>0.4827868852459016</v>
       </c>
       <c r="L12">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="M12">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1178,7 +1169,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1186,13 +1177,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5246376811594203</v>
+        <v>0.5952380952380952</v>
       </c>
       <c r="C13">
-        <v>181</v>
+        <v>25</v>
       </c>
       <c r="D13">
-        <v>181</v>
+        <v>25</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1204,19 +1195,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>164</v>
+        <v>17</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K13">
-        <v>0.3853211009174312</v>
+        <v>0.400611620795107</v>
       </c>
       <c r="L13">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="M13">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1228,7 +1219,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1236,13 +1227,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="C14">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="D14">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1254,19 +1245,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K14">
-        <v>0.3674698795180723</v>
+        <v>0.3373493975903614</v>
       </c>
       <c r="L14">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="M14">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1278,7 +1269,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1286,38 +1277,38 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.4698795180722892</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="C15">
+        <v>28</v>
+      </c>
+      <c r="D15">
+        <v>28</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>26</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K15">
+        <v>0.325</v>
+      </c>
+      <c r="L15">
         <v>39</v>
       </c>
-      <c r="D15">
+      <c r="M15">
         <v>39</v>
       </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>44</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K15">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="L15">
-        <v>40</v>
-      </c>
-      <c r="M15">
-        <v>40</v>
-      </c>
       <c r="N15">
         <v>1</v>
       </c>
@@ -1328,7 +1319,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1336,13 +1327,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.4259259259259259</v>
+        <v>0.5072463768115942</v>
       </c>
       <c r="C16">
-        <v>23</v>
+        <v>175</v>
       </c>
       <c r="D16">
-        <v>23</v>
+        <v>175</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1354,19 +1345,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>31</v>
+        <v>170</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K16">
-        <v>0.328042328042328</v>
+        <v>0.3068783068783069</v>
       </c>
       <c r="L16">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="M16">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1378,7 +1369,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1386,13 +1377,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.4094488188976378</v>
+        <v>0.4939759036144578</v>
       </c>
       <c r="C17">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D17">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1404,19 +1395,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K17">
-        <v>0.2421875</v>
+        <v>0.253968253968254</v>
       </c>
       <c r="L17">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M17">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1428,7 +1419,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1436,13 +1427,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.4044943820224719</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="C18">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D18">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1454,19 +1445,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K18">
-        <v>0.2167832167832168</v>
+        <v>0.25</v>
       </c>
       <c r="L18">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M18">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1478,7 +1469,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>112</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1486,13 +1477,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.3791469194312796</v>
+        <v>0.4330708661417323</v>
       </c>
       <c r="C19">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="D19">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1504,19 +1495,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>131</v>
+        <v>72</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K19">
-        <v>0.2048192771084337</v>
+        <v>0.2329317269076305</v>
       </c>
       <c r="L19">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="M19">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1528,7 +1519,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>198</v>
+        <v>191</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1536,13 +1527,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.375</v>
+        <v>0.40625</v>
       </c>
       <c r="C20">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D20">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1554,28 +1545,28 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K20">
-        <v>0.1989247311827957</v>
+        <v>0.1945945945945946</v>
       </c>
       <c r="L20">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M20">
         <v>37</v>
       </c>
       <c r="N20">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q20">
         <v>149</v>
@@ -1586,13 +1577,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.3650793650793651</v>
+        <v>0.3981042654028436</v>
       </c>
       <c r="C21">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="D21">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1604,19 +1595,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>40</v>
+        <v>127</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K21">
-        <v>0.184</v>
+        <v>0.168273444347064</v>
       </c>
       <c r="L21">
-        <v>23</v>
+        <v>192</v>
       </c>
       <c r="M21">
-        <v>23</v>
+        <v>192</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1628,7 +1619,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>102</v>
+        <v>949</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1636,13 +1627,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.3492063492063492</v>
+        <v>0.3650793650793651</v>
       </c>
       <c r="C22">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D22">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1654,19 +1645,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K22">
-        <v>0.1796669588080631</v>
+        <v>0.1678321678321678</v>
       </c>
       <c r="L22">
-        <v>205</v>
+        <v>24</v>
       </c>
       <c r="M22">
-        <v>205</v>
+        <v>24</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1678,7 +1669,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>936</v>
+        <v>119</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1686,13 +1677,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.3368421052631579</v>
+        <v>0.3578947368421053</v>
       </c>
       <c r="C23">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D23">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1704,31 +1695,31 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K23">
-        <v>0.0947075208913649</v>
+        <v>0.106145251396648</v>
       </c>
       <c r="L23">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M23">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="N23">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q23">
-        <v>325</v>
+        <v>320</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1736,13 +1727,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.2871287128712871</v>
+        <v>0.3492063492063492</v>
       </c>
       <c r="C24">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="D24">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1754,19 +1745,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>144</v>
+        <v>41</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K24">
-        <v>0.09421702404158544</v>
+        <v>0.1000649772579597</v>
       </c>
       <c r="L24">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="M24">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="N24">
         <v>0.99</v>
@@ -1778,7 +1769,7 @@
         <v>1</v>
       </c>
       <c r="Q24">
-        <v>1394</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1786,13 +1777,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.2755102040816326</v>
+        <v>0.3370786516853932</v>
       </c>
       <c r="C25">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D25">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1804,19 +1795,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K25">
-        <v>0.09358288770053476</v>
+        <v>0.09625668449197861</v>
       </c>
       <c r="L25">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M25">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1828,7 +1819,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1836,13 +1827,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.2422680412371134</v>
+        <v>0.297029702970297</v>
       </c>
       <c r="C26">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="D26">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1854,31 +1845,31 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K26">
-        <v>0.07098765432098765</v>
+        <v>0.05080213903743316</v>
       </c>
       <c r="L26">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="M26">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="N26">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="O26">
-        <v>0</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q26">
-        <v>301</v>
+        <v>710</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1886,13 +1877,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.2222222222222222</v>
+        <v>0.2478632478632479</v>
       </c>
       <c r="C27">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D27">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1904,31 +1895,31 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K27">
-        <v>0.05319148936170213</v>
+        <v>0.03129445234708392</v>
       </c>
       <c r="L27">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="M27">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="N27">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="O27">
-        <v>0</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q27">
-        <v>712</v>
+        <v>681</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1936,13 +1927,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.215</v>
+        <v>0.2474226804123711</v>
       </c>
       <c r="C28">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D28">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1954,31 +1945,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>157</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K28">
-        <v>0.03900709219858156</v>
-      </c>
-      <c r="L28">
-        <v>22</v>
-      </c>
-      <c r="M28">
-        <v>23</v>
-      </c>
-      <c r="N28">
-        <v>0.96</v>
-      </c>
-      <c r="O28">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="P28" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q28">
-        <v>542</v>
+        <v>146</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1986,13 +1953,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.1992753623188406</v>
+        <v>0.2244897959183673</v>
       </c>
       <c r="C29">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="D29">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2004,31 +1971,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>221</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="K29">
-        <v>0.03142857142857143</v>
-      </c>
-      <c r="L29">
-        <v>22</v>
-      </c>
-      <c r="M29">
-        <v>27</v>
-      </c>
-      <c r="N29">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="O29">
-        <v>0.1899999999999999</v>
-      </c>
-      <c r="P29" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q29">
-        <v>678</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2036,13 +1979,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.1930379746835443</v>
+        <v>0.1993670886075949</v>
       </c>
       <c r="C30">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D30">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2054,7 +1997,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2062,13 +2005,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.1857142857142857</v>
+        <v>0.1992753623188406</v>
       </c>
       <c r="C31">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="D31">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2080,7 +2023,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>114</v>
+        <v>221</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2088,25 +2031,25 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.1822429906542056</v>
+        <v>0.1827637444279346</v>
       </c>
       <c r="C32">
-        <v>39</v>
+        <v>123</v>
       </c>
       <c r="D32">
-        <v>39</v>
+        <v>124</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32">
-        <v>175</v>
+        <v>550</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2114,19 +2057,19 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.1791907514450867</v>
+        <v>0.1815561959654179</v>
       </c>
       <c r="C33">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D33">
         <v>64</v>
       </c>
       <c r="E33">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="F33">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="G33" t="b">
         <v>1</v>
@@ -2140,13 +2083,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.1772151898734177</v>
+        <v>0.18</v>
       </c>
       <c r="C34">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="D34">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2158,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>260</v>
+        <v>164</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2166,13 +2109,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.1602373887240356</v>
+        <v>0.1728971962616822</v>
       </c>
       <c r="C35">
-        <v>108</v>
+        <v>37</v>
       </c>
       <c r="D35">
-        <v>108</v>
+        <v>37</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2184,7 +2127,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>566</v>
+        <v>177</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2192,13 +2135,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.1541850220264317</v>
+        <v>0.1497797356828194</v>
       </c>
       <c r="C36">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D36">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2210,7 +2153,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>384</v>
+        <v>386</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2218,13 +2161,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.1465968586387434</v>
+        <v>0.1487341772151899</v>
       </c>
       <c r="C37">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="D37">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2236,7 +2179,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>163</v>
+        <v>269</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2244,25 +2187,25 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.1464968152866242</v>
+        <v>0.1379310344827586</v>
       </c>
       <c r="C38">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D38">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F38">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38">
-        <v>134</v>
+        <v>150</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2270,25 +2213,25 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.1411290322580645</v>
+        <v>0.1295546558704453</v>
       </c>
       <c r="C39">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D39">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F39">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2296,25 +2239,25 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.1086142322097378</v>
+        <v>0.1240601503759398</v>
       </c>
       <c r="C40">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D40">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F40">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2322,25 +2265,25 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.1026785714285714</v>
+        <v>0.0847457627118644</v>
       </c>
       <c r="C41">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="D41">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="E41">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="F41">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="G41" t="b">
         <v>1</v>
       </c>
       <c r="H41">
-        <v>402</v>
+        <v>324</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2348,13 +2291,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.0958904109589041</v>
+        <v>0.08463251670378619</v>
       </c>
       <c r="C42">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D42">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2366,7 +2309,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>330</v>
+        <v>411</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2374,25 +2317,25 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.07670454545454546</v>
+        <v>0.06765676567656766</v>
       </c>
       <c r="C43">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="D43">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="E43">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="F43">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="G43" t="b">
         <v>1</v>
       </c>
       <c r="H43">
-        <v>325</v>
+        <v>565</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2400,25 +2343,25 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.066006600660066</v>
+        <v>0.06318681318681318</v>
       </c>
       <c r="C44">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="D44">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="E44">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="F44">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="G44" t="b">
         <v>1</v>
       </c>
       <c r="H44">
-        <v>566</v>
+        <v>341</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2426,25 +2369,25 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.05827505827505827</v>
+        <v>0.05529953917050692</v>
       </c>
       <c r="C45">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="D45">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E45">
-        <v>0.17</v>
+        <v>0.1</v>
       </c>
       <c r="F45">
-        <v>0.83</v>
+        <v>0.9</v>
       </c>
       <c r="G45" t="b">
         <v>1</v>
       </c>
       <c r="H45">
-        <v>404</v>
+        <v>615</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2452,51 +2395,25 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.05343511450381679</v>
+        <v>0.05477707006369427</v>
       </c>
       <c r="C46">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="D46">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="F46">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="G46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="A47" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B47">
-        <v>0.04719387755102041</v>
-      </c>
-      <c r="C47">
-        <v>37</v>
-      </c>
-      <c r="D47">
-        <v>47</v>
-      </c>
-      <c r="E47">
-        <v>0.21</v>
-      </c>
-      <c r="F47">
-        <v>0.79</v>
-      </c>
-      <c r="G47" t="b">
-        <v>1</v>
-      </c>
-      <c r="H47">
-        <v>747</v>
+        <v>742</v>
       </c>
     </row>
   </sheetData>
